--- a/tutorial/supply/tests/supplier_excel_data/控制柜轿厢意外移动保护装置数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/控制柜轿厢意外移动保护装置数据表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\系统要上传的数据表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28974064-D0FD-2843-845A-130BA91F9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="2625" windowWidth="27840" windowHeight="16935"/>
+    <workbookView xWindow="42680" yWindow="5660" windowWidth="27840" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,18 +115,22 @@
   </si>
   <si>
     <t>2023.8.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,8 +385,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10 3" xfId="1"/>
-    <cellStyle name="常规 137" xfId="2"/>
+    <cellStyle name="常规 10 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 137" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -701,26 +697,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="13" t="s">
@@ -740,7 +736,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -757,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>6</v>
@@ -784,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -828,17 +824,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
@@ -853,5 +863,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tutorial/supply/tests/supplier_excel_data/控制柜轿厢意外移动保护装置数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/控制柜轿厢意外移动保护装置数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28974064-D0FD-2843-845A-130BA91F9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42680" yWindow="5660" windowWidth="27840" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42675" yWindow="5655" windowWidth="27840" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编号1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>型式试验证书编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -59,13 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>型号1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XZPBK1002029056</t>
-  </si>
-  <si>
     <t>控制柜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,47 +78,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>轿厢意外移动保护装置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轿厢意外移动保护装置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIZI-UCMP01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23012205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCMP23012205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSX F38002720200025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.8.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZ22230535</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2230535</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +164,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -327,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,15 +320,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,19 +327,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 137" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 10 3" xfId="1"/>
+    <cellStyle name="常规 137" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,46 +644,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -753,113 +688,54 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
